--- a/fhir/ig/urgencia/CodeSystem-CSEstadoCivil.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-CSEstadoCivil.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://proceso-urgencia.minsal.cl/CodeSystem/CSEstadoCivil</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/urgencia/CodeSystem/CSEstadoCivil</t>
   </si>
   <si>
     <t>Version</t>
@@ -66,13 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>ChileData</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>ChileData (http://chiledata.cl)</t>
+    <t>Unidad de Interoperabilidad - MINSAL (https://interoperabilidad.minsal.cl)</t>
   </si>
   <si>
     <t>Roberto Araneda (roberto.araneda@chiledata.cl(work))</t>
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t/>
+    <t>Chile</t>
   </si>
   <si>
     <t>Description</t>

--- a/fhir/ig/urgencia/CodeSystem-CSEstadoCivil.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-CSEstadoCivil.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/CodeSystem-CSEstadoCivil.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-CSEstadoCivil.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
